--- a/C2-AgileDevelopmentwithAzure/project-plan.xlsx
+++ b/C2-AgileDevelopmentwithAzure/project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cz.official/Documents/Studium/2020 - Udacity/Cloud DevOps using Microsoft Azure/nd082-Azure-Cloud-DevOps-Starter-Code/C2-AgileDevelopmentwithAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C2479-4D2E-0344-A6FD-34A73B30FBC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1ADF89-7149-F842-B400-23A9FC3BA8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="5680" windowWidth="27140" windowHeight="17440" xr2:uid="{51D9D8A8-7FE5-674D-A3EF-965A9E22E961}"/>
   </bookViews>
@@ -197,10 +197,10 @@
     <xf numFmtId="17" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,10 +540,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -568,10 +568,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +609,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,14 +646,14 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -735,10 +735,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -771,7 +771,7 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -780,7 +780,7 @@
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048576" s="1" t="s">

--- a/C2-AgileDevelopmentwithAzure/project-plan.xlsx
+++ b/C2-AgileDevelopmentwithAzure/project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cz.official/Documents/Studium/2020 - Udacity/Cloud DevOps using Microsoft Azure/nd082-Azure-Cloud-DevOps-Starter-Code/C2-AgileDevelopmentwithAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1ADF89-7149-F842-B400-23A9FC3BA8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68406F45-E96D-5842-8494-BE10C15CFCC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="5680" windowWidth="27140" windowHeight="17440" xr2:uid="{51D9D8A8-7FE5-674D-A3EF-965A9E22E961}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/C2-AgileDevelopmentwithAzure/project-plan.xlsx
+++ b/C2-AgileDevelopmentwithAzure/project-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cz.official/Documents/Studium/2020 - Udacity/Cloud DevOps using Microsoft Azure/nd082-Azure-Cloud-DevOps-Starter-Code/C2-AgileDevelopmentwithAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68406F45-E96D-5842-8494-BE10C15CFCC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224F73D5-3CBF-DA49-9232-415DEB175F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="5680" windowWidth="27140" windowHeight="17440" xr2:uid="{51D9D8A8-7FE5-674D-A3EF-965A9E22E961}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Week</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Verfiy prediction</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
